--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_bus_ward34_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_bus_ward34_isolated.xlsx
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480242</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,55 +719,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838861</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872186</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-5.560727865338318E-11</v>
+        <v>-8.693884430299162E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671963</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457567786474546E-10</v>
       </c>
       <c r="R3">
-        <v>-74.93000134425772</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404252</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564867706877809E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.910066833103</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315016</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037907898565051E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315015</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.037895639060773E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1086,55 +1086,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>1.024641882834442</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.267674256080869</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8949490735344907</v>
+        <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>6.545810733042242</v>
+        <v>5.766209884997126</v>
       </c>
       <c r="R2">
-        <v>-119.2198980305553</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>172.5004903485669</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794844981017322</v>
+        <v>1.020226441315021</v>
       </c>
       <c r="O3">
-        <v>0.7611597643616361</v>
+        <v>0.240040698163019</v>
       </c>
       <c r="P3">
-        <v>1.070183297417305</v>
+        <v>0.8960735770061724</v>
       </c>
       <c r="Q3">
-        <v>22.66519022127846</v>
+        <v>5.766209884977191</v>
       </c>
       <c r="R3">
-        <v>-82.63495878488919</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
-        <v>159.3482364747526</v>
+        <v>173.4315681785684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05797793025859</v>
+        <v>1.020226441292308</v>
       </c>
       <c r="O4">
-        <v>0.9854968213790727</v>
+        <v>0.2400406981651696</v>
       </c>
       <c r="P4">
-        <v>1.086869251672576</v>
+        <v>0.8960735770323207</v>
       </c>
       <c r="Q4">
-        <v>27.74205110167882</v>
+        <v>5.766209886018073</v>
       </c>
       <c r="R4">
-        <v>-88.10871615027402</v>
+        <v>-121.3466079469511</v>
       </c>
       <c r="S4">
-        <v>153.0560938872236</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O5">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658864</v>
       </c>
       <c r="P5">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>29.99999999841987</v>
+        <v>5.766209886365027</v>
       </c>
       <c r="R5">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S5">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O6">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658865</v>
       </c>
       <c r="P6">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410365</v>
       </c>
       <c r="Q6">
-        <v>29.99999999841987</v>
+        <v>5.76620988636502</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S6">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="D2">
-        <v>4.164034195841091</v>
+        <v>3.734156921377196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>264.4516890272027</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>1.024641882834442</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.267674256080869</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8949490735344907</v>
+        <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>6.545810733042242</v>
+        <v>5.766209884997126</v>
       </c>
       <c r="R2">
-        <v>-119.2198980305553</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>172.5004903485669</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794844981017322</v>
+        <v>1.020226441315021</v>
       </c>
       <c r="O3">
-        <v>0.7611597643616361</v>
+        <v>0.240040698163019</v>
       </c>
       <c r="P3">
-        <v>1.070183297417305</v>
+        <v>0.8960735770061724</v>
       </c>
       <c r="Q3">
-        <v>22.66519022127846</v>
+        <v>5.766209884977191</v>
       </c>
       <c r="R3">
-        <v>-82.63495878488919</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
-        <v>159.3482364747526</v>
+        <v>173.4315681785684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05797793025859</v>
+        <v>1.020226441292308</v>
       </c>
       <c r="O4">
-        <v>0.9854968213790727</v>
+        <v>0.2400406981651696</v>
       </c>
       <c r="P4">
-        <v>1.086869251672576</v>
+        <v>0.8960735770323207</v>
       </c>
       <c r="Q4">
-        <v>27.74205110167882</v>
+        <v>5.766209886018073</v>
       </c>
       <c r="R4">
-        <v>-88.10871615027402</v>
+        <v>-121.3466079469511</v>
       </c>
       <c r="S4">
-        <v>153.0560938872236</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O5">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658864</v>
       </c>
       <c r="P5">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>29.99999999841987</v>
+        <v>5.766209886365027</v>
       </c>
       <c r="R5">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S5">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O6">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658865</v>
       </c>
       <c r="P6">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410365</v>
       </c>
       <c r="Q6">
-        <v>29.99999999841987</v>
+        <v>5.76620988636502</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S6">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1820,55 +1820,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264774</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="D2">
-        <v>4.162140379264774</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="G2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848565</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854863</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467544264763926E-10</v>
+        <v>1.719978963312989E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789681</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578002</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905277</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.106575982894733E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696509</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254918</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
-        <v>0.8489129241453541</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856682</v>
+        <v>3.135341083387346E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399416</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.9999999968558</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043559774203474E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043562143186622E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2187,55 +2187,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264774</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="D2">
-        <v>4.162140379264774</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="G2">
-        <v>264.3314155210882</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848565</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854863</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467544264763926E-10</v>
+        <v>1.719978963312989E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789681</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578002</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905277</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.106575982894733E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696509</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254918</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
-        <v>0.8489129241453541</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856682</v>
+        <v>3.135341083387346E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399416</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.9999999968558</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043559774203474E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043562143186622E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2554,55 +2554,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.394460119549793</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="D2">
-        <v>3.394460119549793</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="G2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9235249897284542</v>
+        <v>0.9220324944339026</v>
       </c>
       <c r="O2">
-        <v>0.2182041608271529</v>
+        <v>0.1964063473242866</v>
       </c>
       <c r="P2">
-        <v>0.8190898126975767</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.942958698058129</v>
+        <v>5.17397690411579</v>
       </c>
       <c r="R2">
-        <v>-118.7854635782679</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>173.2960275321284</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8345382271144524</v>
+        <v>0.9220324943451751</v>
       </c>
       <c r="O3">
-        <v>0.6172174442856089</v>
+        <v>0.1964063472166737</v>
       </c>
       <c r="P3">
-        <v>0.9970078406183449</v>
+        <v>0.8180121062689187</v>
       </c>
       <c r="Q3">
-        <v>20.80455970630529</v>
+        <v>5.173976904114562</v>
       </c>
       <c r="R3">
-        <v>-73.83824973735305</v>
+        <v>-122.1449202549969</v>
       </c>
       <c r="S3">
-        <v>162.7043734966286</v>
+        <v>174.1659345864975</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.942320322390786</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
-        <v>0.8661701609461681</v>
+        <v>0.1964063472443393</v>
       </c>
       <c r="P4">
-        <v>0.9935581431749088</v>
+        <v>0.8180121062966166</v>
       </c>
       <c r="Q4">
-        <v>27.29607780058892</v>
+        <v>5.173976906219881</v>
       </c>
       <c r="R4">
-        <v>-86.20908157863238</v>
+        <v>-122.1449202329784</v>
       </c>
       <c r="S4">
-        <v>154.2185691425461</v>
+        <v>174.1659345844573</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535612</v>
       </c>
       <c r="P5">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>29.99999999855265</v>
+        <v>5.173976906921658</v>
       </c>
       <c r="R5">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S5">
-        <v>150.0000000005734</v>
+        <v>174.1659345837773</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163395</v>
       </c>
       <c r="O6">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535613</v>
       </c>
       <c r="P6">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058494</v>
       </c>
       <c r="Q6">
-        <v>29.99999999855265</v>
+        <v>5.173976906921666</v>
       </c>
       <c r="R6">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S6">
-        <v>150.0000000005734</v>
+        <v>174.1659345837773</v>
       </c>
     </row>
   </sheetData>
@@ -2921,55 +2921,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.394460119549793</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="D2">
-        <v>3.394460119549793</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="G2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9235249897284542</v>
+        <v>0.9220324944339026</v>
       </c>
       <c r="O2">
-        <v>0.2182041608271529</v>
+        <v>0.1964063473242866</v>
       </c>
       <c r="P2">
-        <v>0.8190898126975767</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.942958698058129</v>
+        <v>5.17397690411579</v>
       </c>
       <c r="R2">
-        <v>-118.7854635782679</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>173.2960275321284</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8345382271144524</v>
+        <v>0.9220324943451751</v>
       </c>
       <c r="O3">
-        <v>0.6172174442856089</v>
+        <v>0.1964063472166737</v>
       </c>
       <c r="P3">
-        <v>0.9970078406183449</v>
+        <v>0.8180121062689187</v>
       </c>
       <c r="Q3">
-        <v>20.80455970630529</v>
+        <v>5.173976904114562</v>
       </c>
       <c r="R3">
-        <v>-73.83824973735305</v>
+        <v>-122.1449202549969</v>
       </c>
       <c r="S3">
-        <v>162.7043734966286</v>
+        <v>174.1659345864975</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.942320322390786</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
-        <v>0.8661701609461681</v>
+        <v>0.1964063472443393</v>
       </c>
       <c r="P4">
-        <v>0.9935581431749088</v>
+        <v>0.8180121062966166</v>
       </c>
       <c r="Q4">
-        <v>27.29607780058892</v>
+        <v>5.173976906219881</v>
       </c>
       <c r="R4">
-        <v>-86.20908157863238</v>
+        <v>-122.1449202329784</v>
       </c>
       <c r="S4">
-        <v>154.2185691425461</v>
+        <v>174.1659345844573</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535612</v>
       </c>
       <c r="P5">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>29.99999999855265</v>
+        <v>5.173976906921658</v>
       </c>
       <c r="R5">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S5">
-        <v>150.0000000005734</v>
+        <v>174.1659345837773</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163395</v>
       </c>
       <c r="O6">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535613</v>
       </c>
       <c r="P6">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058494</v>
       </c>
       <c r="Q6">
-        <v>29.99999999855265</v>
+        <v>5.173976906921666</v>
       </c>
       <c r="R6">
-        <v>-90.00000000172975</v>
+        <v>-122.1449202256389</v>
       </c>
       <c r="S6">
-        <v>150.0000000005734</v>
+        <v>174.1659345837773</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.768166789883012</v>
+        <v>5.264364617711066</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>366.3277913756579</v>
+        <v>334.3320562062608</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,43 +3306,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858999</v>
+        <v>1.324394473164018</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621517</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6547065181132603</v>
+        <v>0.6343001104121928</v>
       </c>
       <c r="O2">
-        <v>1.100000023879093</v>
+        <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.644654544820273</v>
+        <v>0.6339720469102066</v>
       </c>
       <c r="Q2">
-        <v>58.11815482056354</v>
+        <v>60.15738962477764</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005096</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>122.4392414639277</v>
+        <v>119.8596212761358</v>
       </c>
       <c r="T2">
-        <v>5.768166789883012</v>
+        <v>5.264364617711065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785995131901573</v>
+        <v>0.6343001105284097</v>
       </c>
       <c r="O3">
-        <v>1.100000023851489</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P3">
-        <v>0.8528513893575013</v>
+        <v>0.6339720467990856</v>
       </c>
       <c r="Q3">
-        <v>41.98988721920058</v>
+        <v>60.15738963029995</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036962</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S3">
-        <v>148.5233290047441</v>
+        <v>119.8596212824029</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.054596300967233</v>
+        <v>0.6343001105688995</v>
       </c>
       <c r="O4">
-        <v>1.100000023841629</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P4">
-        <v>1.017549107611877</v>
+        <v>0.6339720467858131</v>
       </c>
       <c r="Q4">
-        <v>33.68415223473924</v>
+        <v>60.15738962955148</v>
       </c>
       <c r="R4">
-        <v>-90.00000000012078</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>149.587488418146</v>
+        <v>119.8596212859401</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823959</v>
       </c>
       <c r="O5">
-        <v>1.100000023836699</v>
+        <v>1.100000023885132</v>
       </c>
       <c r="P5">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813889</v>
       </c>
       <c r="Q5">
-        <v>30.00000000051208</v>
+        <v>60.157389629302</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999984036</v>
+        <v>119.8596212871192</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823959</v>
       </c>
       <c r="O6">
-        <v>1.100000023836699</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P6">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813891</v>
       </c>
       <c r="Q6">
-        <v>30.00000000051208</v>
+        <v>60.15738962930197</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999984036</v>
+        <v>119.8596212871192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.768166789883012</v>
+        <v>5.264364617711066</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>366.3277913756579</v>
+        <v>334.3320562062608</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,43 +3691,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858999</v>
+        <v>1.324394473164018</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621517</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6547065181132603</v>
+        <v>0.6343001104121928</v>
       </c>
       <c r="O2">
-        <v>1.100000023879093</v>
+        <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.644654544820273</v>
+        <v>0.6339720469102066</v>
       </c>
       <c r="Q2">
-        <v>58.11815482056354</v>
+        <v>60.15738962477764</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005096</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>122.4392414639277</v>
+        <v>119.8596212761358</v>
       </c>
       <c r="T2">
-        <v>5.768166789883012</v>
+        <v>5.264364617711065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9785995131901573</v>
+        <v>0.6343001105284097</v>
       </c>
       <c r="O3">
-        <v>1.100000023851489</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P3">
-        <v>0.8528513893575013</v>
+        <v>0.6339720467990856</v>
       </c>
       <c r="Q3">
-        <v>41.98988721920058</v>
+        <v>60.15738963029995</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036962</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S3">
-        <v>148.5233290047441</v>
+        <v>119.8596212824029</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.054596300967233</v>
+        <v>0.6343001105688995</v>
       </c>
       <c r="O4">
-        <v>1.100000023841629</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P4">
-        <v>1.017549107611877</v>
+        <v>0.6339720467858131</v>
       </c>
       <c r="Q4">
-        <v>33.68415223473924</v>
+        <v>60.15738962955148</v>
       </c>
       <c r="R4">
-        <v>-90.00000000012078</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>149.587488418146</v>
+        <v>119.8596212859401</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823959</v>
       </c>
       <c r="O5">
-        <v>1.100000023836699</v>
+        <v>1.100000023885132</v>
       </c>
       <c r="P5">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813889</v>
       </c>
       <c r="Q5">
-        <v>30.00000000051208</v>
+        <v>60.157389629302</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999984036</v>
+        <v>119.8596212871192</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795754</v>
+        <v>0.6343001105823959</v>
       </c>
       <c r="O6">
-        <v>1.100000023836699</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P6">
-        <v>1.100000023807692</v>
+        <v>0.6339720467813891</v>
       </c>
       <c r="Q6">
-        <v>30.00000000051208</v>
+        <v>60.15738962930197</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999984036</v>
+        <v>119.8596212871192</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.839876459005223</v>
+        <v>3.625393424248131</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.864907798773</v>
+        <v>230.2434056348754</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858999</v>
+        <v>1.324394473164018</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621517</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.722142877722635</v>
+        <v>0.6909829222610616</v>
       </c>
       <c r="O2">
-        <v>1.100000023868949</v>
+        <v>1.100000023874114</v>
       </c>
       <c r="P2">
-        <v>0.8528815234152035</v>
+        <v>0.8375659730062432</v>
       </c>
       <c r="Q2">
-        <v>39.19857888073655</v>
+        <v>40.43431448130419</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003398</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>131.0081309115409</v>
+        <v>128.8983448519719</v>
       </c>
       <c r="T2">
-        <v>3.839876459005223</v>
+        <v>3.625393424248132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.981144441247047</v>
+        <v>0.690982922305023</v>
       </c>
       <c r="O3">
-        <v>1.100000023848919</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P3">
-        <v>0.9452155073263515</v>
+        <v>0.8375659729263021</v>
       </c>
       <c r="Q3">
-        <v>36.34418352539414</v>
+        <v>40.43431448785277</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025253</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>146.7293599829253</v>
+        <v>128.8983448548237</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.058995483107378</v>
+        <v>0.6909829223314861</v>
       </c>
       <c r="O4">
-        <v>1.100000023842153</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P4">
-        <v>1.048046156821658</v>
+        <v>0.8375659729151195</v>
       </c>
       <c r="Q4">
-        <v>31.95564422545369</v>
+        <v>40.43431448872152</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008174</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S4">
-        <v>149.0172403193341</v>
+        <v>128.8983448566142</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810735</v>
+        <v>0.690982922340307</v>
       </c>
       <c r="O5">
-        <v>1.10000002383877</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P5">
-        <v>1.100000023824932</v>
+        <v>0.8375659729113918</v>
       </c>
       <c r="Q5">
-        <v>29.99999999998797</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810735</v>
+        <v>0.690982922340307</v>
       </c>
       <c r="O6">
-        <v>1.10000002383877</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P6">
-        <v>1.100000023824932</v>
+        <v>0.837565972911392</v>
       </c>
       <c r="Q6">
-        <v>29.99999999998797</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S6">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4404,22 +4404,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480242</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.839876459005223</v>
+        <v>3.625393424248131</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.864907798773</v>
+        <v>230.2434056348754</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,43 +4612,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.300764447633599</v>
+        <v>1.300764447633596</v>
       </c>
       <c r="I2">
-        <v>13.12643350248108</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.451153268858999</v>
+        <v>1.324394473164018</v>
       </c>
       <c r="K2">
-        <v>11.4816112091574</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.451153269621517</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.722142877722635</v>
+        <v>0.6909829222610616</v>
       </c>
       <c r="O2">
-        <v>1.100000023868949</v>
+        <v>1.100000023874114</v>
       </c>
       <c r="P2">
-        <v>0.8528815234152035</v>
+        <v>0.8375659730062432</v>
       </c>
       <c r="Q2">
-        <v>39.19857888073655</v>
+        <v>40.43431448130419</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003398</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>131.0081309115409</v>
+        <v>128.8983448519719</v>
       </c>
       <c r="T2">
-        <v>3.839876459005223</v>
+        <v>3.625393424248132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.981144441247047</v>
+        <v>0.690982922305023</v>
       </c>
       <c r="O3">
-        <v>1.100000023848919</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P3">
-        <v>0.9452155073263515</v>
+        <v>0.8375659729263021</v>
       </c>
       <c r="Q3">
-        <v>36.34418352539414</v>
+        <v>40.43431448785277</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025253</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>146.7293599829253</v>
+        <v>128.8983448548237</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.058995483107378</v>
+        <v>0.6909829223314861</v>
       </c>
       <c r="O4">
-        <v>1.100000023842153</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P4">
-        <v>1.048046156821658</v>
+        <v>0.8375659729151195</v>
       </c>
       <c r="Q4">
-        <v>31.95564422545369</v>
+        <v>40.43431448872152</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008174</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S4">
-        <v>149.0172403193341</v>
+        <v>128.8983448566142</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810735</v>
+        <v>0.690982922340307</v>
       </c>
       <c r="O5">
-        <v>1.10000002383877</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P5">
-        <v>1.100000023824932</v>
+        <v>0.8375659729113918</v>
       </c>
       <c r="Q5">
-        <v>29.99999999998797</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810735</v>
+        <v>0.690982922340307</v>
       </c>
       <c r="O6">
-        <v>1.10000002383877</v>
+        <v>1.100000023874345</v>
       </c>
       <c r="P6">
-        <v>1.100000023824932</v>
+        <v>0.837565972911392</v>
       </c>
       <c r="Q6">
-        <v>29.99999999998797</v>
+        <v>40.43431448901111</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S6">
-        <v>149.9999999987239</v>
+        <v>128.898344857211</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.603693591719893</v>
+        <v>4.213192401619783</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>292.373810789064</v>
+        <v>267.5736543945155</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5000,40 +5000,40 @@
         <v>1.474542044182675</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069542</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5993129457589584</v>
+        <v>0.5765401439822565</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976871</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P2">
-        <v>0.5806200459831341</v>
+        <v>0.5762017952293778</v>
       </c>
       <c r="Q2">
-        <v>58.50547054855188</v>
+        <v>60.17868937655202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998764</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>122.6316606308716</v>
+        <v>119.8405974276079</v>
       </c>
       <c r="T2">
-        <v>4.603693591719892</v>
+        <v>4.213192401619783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8961560608944963</v>
+        <v>0.5765401440904332</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948241</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P3">
-        <v>0.7004464375684313</v>
+        <v>0.5762017951254217</v>
       </c>
       <c r="Q3">
-        <v>47.07769601312541</v>
+        <v>60.17868938223113</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994743</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S3">
-        <v>150.6081702541155</v>
+        <v>119.8405974340222</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9562463970320869</v>
+        <v>0.5765401441386178</v>
       </c>
       <c r="O4">
-        <v>0.999999999995684</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P4">
-        <v>0.9001390711069268</v>
+        <v>0.5762017951247246</v>
       </c>
       <c r="Q4">
-        <v>35.26360430047993</v>
+        <v>60.17868937950898</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998005</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>150.1577471886329</v>
+        <v>119.8405974395332</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546794</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P5">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244921</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006776</v>
+        <v>60.17868937860161</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999983198</v>
+        <v>119.8405974413702</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546794</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P6">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244921</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006776</v>
+        <v>60.17868937860161</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999983198</v>
+        <v>119.8405974413702</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.603693591719893</v>
+        <v>4.213192401619783</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>292.373810789064</v>
+        <v>267.5736543945155</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5385,40 +5385,40 @@
         <v>1.474542044182675</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069542</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5993129457589584</v>
+        <v>0.5765401439822565</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976871</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P2">
-        <v>0.5806200459831341</v>
+        <v>0.5762017952293778</v>
       </c>
       <c r="Q2">
-        <v>58.50547054855188</v>
+        <v>60.17868937655202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998764</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>122.6316606308716</v>
+        <v>119.8405974276079</v>
       </c>
       <c r="T2">
-        <v>4.603693591719892</v>
+        <v>4.213192401619783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8961560608944963</v>
+        <v>0.5765401440904332</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948241</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P3">
-        <v>0.7004464375684313</v>
+        <v>0.5762017951254217</v>
       </c>
       <c r="Q3">
-        <v>47.07769601312541</v>
+        <v>60.17868938223113</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994743</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S3">
-        <v>150.6081702541155</v>
+        <v>119.8405974340222</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9562463970320869</v>
+        <v>0.5765401441386178</v>
       </c>
       <c r="O4">
-        <v>0.999999999995684</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P4">
-        <v>0.9001390711069268</v>
+        <v>0.5762017951247246</v>
       </c>
       <c r="Q4">
-        <v>35.26360430047993</v>
+        <v>60.17868937950898</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998005</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>150.1577471886329</v>
+        <v>119.8405974395332</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546794</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P5">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244921</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006776</v>
+        <v>60.17868937860161</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999983198</v>
+        <v>119.8405974413702</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999616794</v>
+        <v>0.5765401441546794</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961138</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P6">
-        <v>0.9999999999778542</v>
+        <v>0.5762017951244921</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006776</v>
+        <v>60.17868937860161</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999983198</v>
+        <v>119.8405974413702</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.19370772322034</v>
+        <v>3.020245844266743</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.8276815085675</v>
+        <v>191.8113726326878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5770,40 +5770,40 @@
         <v>1.474542044182675</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069542</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6483337318164268</v>
+        <v>0.6174917383880851</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931086</v>
+        <v>0.9999999999908337</v>
       </c>
       <c r="P2">
-        <v>0.7555279089551701</v>
+        <v>0.7469662906422753</v>
       </c>
       <c r="Q2">
-        <v>40.93117198604292</v>
+        <v>41.81125415021729</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997293</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S2">
-        <v>130.4141031254557</v>
+        <v>128.0356398711232</v>
       </c>
       <c r="T2">
-        <v>3.193707723220339</v>
+        <v>3.020245844266743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8776463781142543</v>
+        <v>0.6174917384338742</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942254</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P3">
-        <v>0.796934846137748</v>
+        <v>0.7469662905646183</v>
       </c>
       <c r="Q3">
-        <v>40.29369172106473</v>
+        <v>41.81125415715737</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986593</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
-        <v>147.13883715094</v>
+        <v>128.0356398742512</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9559372837318928</v>
+        <v>0.6174917384735999</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965261</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P4">
-        <v>0.9320747922992522</v>
+        <v>0.7469662905612759</v>
       </c>
       <c r="Q4">
-        <v>33.13485851458751</v>
+        <v>41.81125415722494</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995288</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S4">
-        <v>149.1848688044226</v>
+        <v>128.035639877288</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868419</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601616</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975037</v>
+        <v>41.81125415724747</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S5">
-        <v>149.9999999987033</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868419</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601616</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975037</v>
+        <v>41.81125415724747</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S6">
-        <v>149.9999999987033</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.19370772322034</v>
+        <v>3.020245844266743</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.8276815085675</v>
+        <v>191.8113726326878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6155,40 +6155,40 @@
         <v>1.474542044182675</v>
       </c>
       <c r="I2">
-        <v>14.8984075397507</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>2.024404383465329</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>13.05836749311474</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069542</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6483337318164268</v>
+        <v>0.6174917383880851</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931086</v>
+        <v>0.9999999999908337</v>
       </c>
       <c r="P2">
-        <v>0.7555279089551701</v>
+        <v>0.7469662906422753</v>
       </c>
       <c r="Q2">
-        <v>40.93117198604292</v>
+        <v>41.81125415021729</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997293</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S2">
-        <v>130.4141031254557</v>
+        <v>128.0356398711232</v>
       </c>
       <c r="T2">
-        <v>3.193707723220339</v>
+        <v>3.020245844266743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8776463781142543</v>
+        <v>0.6174917384338742</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942254</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P3">
-        <v>0.796934846137748</v>
+        <v>0.7469662905646183</v>
       </c>
       <c r="Q3">
-        <v>40.29369172106473</v>
+        <v>41.81125415715737</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986593</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
-        <v>147.13883715094</v>
+        <v>128.0356398742512</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9559372837318928</v>
+        <v>0.6174917384735999</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965261</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P4">
-        <v>0.9320747922992522</v>
+        <v>0.7469662905612759</v>
       </c>
       <c r="Q4">
-        <v>33.13485851458751</v>
+        <v>41.81125415722494</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995288</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S4">
-        <v>149.1848688044226</v>
+        <v>128.035639877288</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868419</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601616</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975037</v>
+        <v>41.81125415724747</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S5">
-        <v>149.9999999987033</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999741703</v>
+        <v>0.6174917384868419</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976765</v>
+        <v>0.9999999999908169</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896781</v>
+        <v>0.7469662905601616</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975037</v>
+        <v>41.81125415724747</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S6">
-        <v>149.9999999987033</v>
+        <v>128.0356398783003</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,58 +6522,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.866174627544829</v>
+        <v>5.255183237588033</v>
       </c>
       <c r="D2">
-        <v>5.957644750643577</v>
+        <v>5.257902653512835</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.5521250358996</v>
+        <v>333.7489602548486</v>
       </c>
       <c r="G2">
-        <v>378.3612580572253</v>
+        <v>333.9216663616331</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6622062230867236</v>
+        <v>0.6331769188571922</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6622062231014344</v>
+        <v>0.6331769188732896</v>
       </c>
       <c r="Q2">
-        <v>0.4708164546997582</v>
+        <v>0.01721676024911015</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5291835443253</v>
+        <v>-179.9827832388245</v>
       </c>
       <c r="T2">
-        <v>5.522265125252487</v>
+        <v>5.280184171064528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8502212864338399</v>
+        <v>0.6331769187460415</v>
       </c>
       <c r="O3">
-        <v>0.7144044587887743</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.983062612617269</v>
+        <v>0.6331769189884712</v>
       </c>
       <c r="Q3">
-        <v>27.75877607712544</v>
+        <v>0.01721676653582585</v>
       </c>
       <c r="R3">
-        <v>-74.93000134376798</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.6080095196035</v>
+        <v>-179.9827832332137</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016584066809081</v>
+        <v>0.6331769187329956</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489101</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055545382720063</v>
+        <v>0.6331769190289538</v>
       </c>
       <c r="Q4">
-        <v>29.37533019267689</v>
+        <v>0.01721677007756585</v>
       </c>
       <c r="R4">
-        <v>-86.32236814432962</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8855442538903</v>
+        <v>-179.9827832339436</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286469</v>
       </c>
       <c r="O5">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798845</v>
+        <v>0.6331769190424479</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831627</v>
+        <v>0.01721677125814323</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286469</v>
       </c>
       <c r="O6">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798845</v>
+        <v>0.6331769190424479</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831627</v>
+        <v>0.01721677125815183</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,58 +6907,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.866174627544829</v>
+        <v>5.255183237588033</v>
       </c>
       <c r="D2">
-        <v>5.957644750643577</v>
+        <v>5.257902653512835</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.5521250358996</v>
+        <v>333.7489602548486</v>
       </c>
       <c r="G2">
-        <v>378.3612580572253</v>
+        <v>333.9216663616331</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6622062230867236</v>
+        <v>0.6331769188571922</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6622062231014344</v>
+        <v>0.6331769188732896</v>
       </c>
       <c r="Q2">
-        <v>0.4708164546997582</v>
+        <v>0.01721676024911015</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5291835443253</v>
+        <v>-179.9827832388245</v>
       </c>
       <c r="T2">
-        <v>5.522265125252487</v>
+        <v>5.280184171064528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8502212864338399</v>
+        <v>0.6331769187460415</v>
       </c>
       <c r="O3">
-        <v>0.7144044587887743</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.983062612617269</v>
+        <v>0.6331769189884712</v>
       </c>
       <c r="Q3">
-        <v>27.75877607712544</v>
+        <v>0.01721676653582585</v>
       </c>
       <c r="R3">
-        <v>-74.93000134376798</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.6080095196035</v>
+        <v>-179.9827832332137</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016584066809081</v>
+        <v>0.6331769187329956</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489101</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055545382720063</v>
+        <v>0.6331769190289538</v>
       </c>
       <c r="Q4">
-        <v>29.37533019267689</v>
+        <v>0.01721677007756585</v>
       </c>
       <c r="R4">
-        <v>-86.32236814432962</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8855442538903</v>
+        <v>-179.9827832339436</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286469</v>
       </c>
       <c r="O5">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798845</v>
+        <v>0.6331769190424479</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831627</v>
+        <v>0.01721677125814323</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812663</v>
+        <v>0.6331769187286469</v>
       </c>
       <c r="O6">
-        <v>1.100000023767797</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798845</v>
+        <v>0.6331769190424479</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831627</v>
+        <v>0.01721677125815183</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005943</v>
+        <v>-179.9827832341869</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,58 +7292,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.852271383255074</v>
+        <v>3.62257064259964</v>
       </c>
       <c r="D2">
-        <v>3.938790832417132</v>
+        <v>3.620809597792314</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>244.652091212519</v>
+        <v>230.0641349229672</v>
       </c>
       <c r="G2">
-        <v>250.1468142115428</v>
+        <v>229.9522935566751</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8634613751495585</v>
+        <v>0.8369538581404182</v>
       </c>
       <c r="O2">
-        <v>0.4394653215781923</v>
+        <v>0.4028253111899596</v>
       </c>
       <c r="P2">
-        <v>0.7157579367338904</v>
+        <v>0.6911513994698277</v>
       </c>
       <c r="Q2">
-        <v>10.55861352407927</v>
+        <v>8.944278395730416</v>
       </c>
       <c r="R2">
-        <v>-113.6238695859317</v>
+        <v>-115.8807585964503</v>
       </c>
       <c r="S2">
-        <v>160.033143090832</v>
+        <v>160.3602675324944</v>
       </c>
       <c r="T2">
-        <v>3.737744238672981</v>
+        <v>3.632856785197127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9467476936535441</v>
+        <v>0.8369538580602212</v>
       </c>
       <c r="O3">
-        <v>0.811904591053255</v>
+        <v>0.4028253110950827</v>
       </c>
       <c r="P3">
-        <v>0.9802610712764074</v>
+        <v>0.6911513995130508</v>
       </c>
       <c r="Q3">
-        <v>26.43262936007066</v>
+        <v>8.944278398586134</v>
       </c>
       <c r="R3">
-        <v>-86.3215410515333</v>
+        <v>-115.8807585788097</v>
       </c>
       <c r="S3">
-        <v>156.6329160310487</v>
+        <v>160.3602675390511</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048488308353825</v>
+        <v>0.8369538580491185</v>
       </c>
       <c r="O4">
-        <v>1.003560869452588</v>
+        <v>0.4028253110968872</v>
       </c>
       <c r="P4">
-        <v>1.058572992781525</v>
+        <v>0.6911513995394499</v>
       </c>
       <c r="Q4">
-        <v>28.92689455153273</v>
+        <v>8.944278400378545</v>
       </c>
       <c r="R4">
-        <v>-89.00864495819555</v>
+        <v>-115.880758571817</v>
       </c>
       <c r="S4">
-        <v>152.0432699995949</v>
+        <v>160.360267539925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454177</v>
       </c>
       <c r="O5">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974885</v>
       </c>
       <c r="P5">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482494</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870298</v>
+        <v>8.944278400976012</v>
       </c>
       <c r="R5">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694861</v>
       </c>
       <c r="S5">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454177</v>
       </c>
       <c r="O6">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974886</v>
       </c>
       <c r="P6">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482496</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870298</v>
+        <v>8.94427840097601</v>
       </c>
       <c r="R6">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694861</v>
       </c>
       <c r="S6">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,58 +7677,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.852271383255074</v>
+        <v>3.62257064259964</v>
       </c>
       <c r="D2">
-        <v>3.938790832417132</v>
+        <v>3.620809597792314</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>244.652091212519</v>
+        <v>230.0641349229672</v>
       </c>
       <c r="G2">
-        <v>250.1468142115428</v>
+        <v>229.9522935566751</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8634613751495585</v>
+        <v>0.8369538581404182</v>
       </c>
       <c r="O2">
-        <v>0.4394653215781923</v>
+        <v>0.4028253111899596</v>
       </c>
       <c r="P2">
-        <v>0.7157579367338904</v>
+        <v>0.6911513994698277</v>
       </c>
       <c r="Q2">
-        <v>10.55861352407927</v>
+        <v>8.944278395730416</v>
       </c>
       <c r="R2">
-        <v>-113.6238695859317</v>
+        <v>-115.8807585964503</v>
       </c>
       <c r="S2">
-        <v>160.033143090832</v>
+        <v>160.3602675324944</v>
       </c>
       <c r="T2">
-        <v>3.737744238672981</v>
+        <v>3.632856785197127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9467476936535441</v>
+        <v>0.8369538580602212</v>
       </c>
       <c r="O3">
-        <v>0.811904591053255</v>
+        <v>0.4028253110950827</v>
       </c>
       <c r="P3">
-        <v>0.9802610712764074</v>
+        <v>0.6911513995130508</v>
       </c>
       <c r="Q3">
-        <v>26.43262936007066</v>
+        <v>8.944278398586134</v>
       </c>
       <c r="R3">
-        <v>-86.3215410515333</v>
+        <v>-115.8807585788097</v>
       </c>
       <c r="S3">
-        <v>156.6329160310487</v>
+        <v>160.3602675390511</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048488308353825</v>
+        <v>0.8369538580491185</v>
       </c>
       <c r="O4">
-        <v>1.003560869452588</v>
+        <v>0.4028253110968872</v>
       </c>
       <c r="P4">
-        <v>1.058572992781525</v>
+        <v>0.6911513995394499</v>
       </c>
       <c r="Q4">
-        <v>28.92689455153273</v>
+        <v>8.944278400378545</v>
       </c>
       <c r="R4">
-        <v>-89.00864495819555</v>
+        <v>-115.880758571817</v>
       </c>
       <c r="S4">
-        <v>152.0432699995949</v>
+        <v>160.360267539925</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454177</v>
       </c>
       <c r="O5">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974885</v>
       </c>
       <c r="P5">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482494</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870298</v>
+        <v>8.944278400976012</v>
       </c>
       <c r="R5">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694861</v>
       </c>
       <c r="S5">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023828045</v>
+        <v>0.8369538580454177</v>
       </c>
       <c r="O6">
-        <v>1.100000023798472</v>
+        <v>0.4028253110974886</v>
       </c>
       <c r="P6">
-        <v>1.100000023812409</v>
+        <v>0.6911513995482496</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870298</v>
+        <v>8.94427840097601</v>
       </c>
       <c r="R6">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694861</v>
       </c>
       <c r="S6">
-        <v>150.0000000000066</v>
+        <v>160.3602675402163</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.636360475525315</v>
+        <v>4.204859615112915</v>
       </c>
       <c r="D2">
-        <v>4.78562680287565</v>
+        <v>4.207328731315589</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.448436546515</v>
+        <v>267.0444513759031</v>
       </c>
       <c r="G2">
-        <v>303.9281215169479</v>
+        <v>267.2012613153732</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6010474781944507</v>
+        <v>0.5753800350087244</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6010474781779958</v>
+        <v>0.5753800349877173</v>
       </c>
       <c r="Q2">
-        <v>0.9674207873351212</v>
+        <v>0.01955211452977733</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0325792133333</v>
+        <v>-179.9804478860111</v>
       </c>
       <c r="T2">
-        <v>4.416160613490307</v>
+        <v>4.227570600613082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.698299966111273</v>
+        <v>0.5753800349053522</v>
       </c>
       <c r="O3">
-        <v>0.5980950848483629</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9013758269202011</v>
+        <v>0.5753800350954095</v>
       </c>
       <c r="Q3">
-        <v>29.4369657065793</v>
+        <v>0.01955212100217843</v>
       </c>
       <c r="R3">
-        <v>-62.8177355373552</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.9062050799992</v>
+        <v>-179.9804478802644</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8994249918634522</v>
+        <v>0.5753800349049831</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416573</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9570402938940408</v>
+        <v>0.5753800351436872</v>
       </c>
       <c r="Q4">
-        <v>29.85429174898894</v>
+        <v>0.01955212651037399</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414674</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.539134862884</v>
+        <v>-179.98044788296</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999821964</v>
+        <v>0.57538003490486</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597795</v>
       </c>
       <c r="Q5">
-        <v>29.9999999982646</v>
+        <v>0.01955212834643145</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838585</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999821964</v>
+        <v>0.57538003490486</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597796</v>
       </c>
       <c r="Q6">
-        <v>29.9999999982646</v>
+        <v>0.01955212834644821</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498489</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484581</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.4028253111823096</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.402825311087638</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.4028253110894424</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856889</v>
+        <v>-25.88075857298008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
   </sheetData>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.636360475525315</v>
+        <v>4.204859615112915</v>
       </c>
       <c r="D2">
-        <v>4.78562680287565</v>
+        <v>4.207328731315589</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.448436546515</v>
+        <v>267.0444513759031</v>
       </c>
       <c r="G2">
-        <v>303.9281215169479</v>
+        <v>267.2012613153732</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6010474781944507</v>
+        <v>0.5753800350087244</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6010474781779958</v>
+        <v>0.5753800349877173</v>
       </c>
       <c r="Q2">
-        <v>0.9674207873351212</v>
+        <v>0.01955211452977733</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0325792133333</v>
+        <v>-179.9804478860111</v>
       </c>
       <c r="T2">
-        <v>4.416160613490307</v>
+        <v>4.227570600613082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.698299966111273</v>
+        <v>0.5753800349053522</v>
       </c>
       <c r="O3">
-        <v>0.5980950848483629</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9013758269202011</v>
+        <v>0.5753800350954095</v>
       </c>
       <c r="Q3">
-        <v>29.4369657065793</v>
+        <v>0.01955212100217843</v>
       </c>
       <c r="R3">
-        <v>-62.8177355373552</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.9062050799992</v>
+        <v>-179.9804478802644</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8994249918634522</v>
+        <v>0.5753800349049831</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416573</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9570402938940408</v>
+        <v>0.5753800351436872</v>
       </c>
       <c r="Q4">
-        <v>29.85429174898894</v>
+        <v>0.01955212651037399</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414674</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.539134862884</v>
+        <v>-179.98044788296</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999821964</v>
+        <v>0.57538003490486</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597795</v>
       </c>
       <c r="Q5">
-        <v>29.9999999982646</v>
+        <v>0.01955212834643145</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838585</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999821964</v>
+        <v>0.57538003490486</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634124</v>
+        <v>0.5753800351597796</v>
       </c>
       <c r="Q6">
-        <v>29.9999999982646</v>
+        <v>0.01955212834644821</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001158</v>
+        <v>-179.9804478838585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.184177784595169</v>
+        <v>3.017335629541763</v>
       </c>
       <c r="D2">
-        <v>3.289392018549805</v>
+        <v>3.015854372955129</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>202.2224491192012</v>
+        <v>191.6265491746524</v>
       </c>
       <c r="G2">
-        <v>208.904450411793</v>
+        <v>191.5324767468589</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7672540234385913</v>
+        <v>0.7463003082195629</v>
       </c>
       <c r="O2">
-        <v>0.3649309894066022</v>
+        <v>0.3354590831689817</v>
       </c>
       <c r="P2">
-        <v>0.6406501315959038</v>
+        <v>0.61761589533227</v>
       </c>
       <c r="Q2">
-        <v>10.0430240031902</v>
+        <v>8.094520904119596</v>
       </c>
       <c r="R2">
-        <v>-113.7447931364147</v>
+        <v>-117.0248837768027</v>
       </c>
       <c r="S2">
-        <v>161.7866442133318</v>
+        <v>161.7176503553877</v>
       </c>
       <c r="T2">
-        <v>3.11286303790563</v>
+        <v>3.02761408616841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7993189627126931</v>
+        <v>0.7463003081421464</v>
       </c>
       <c r="O3">
-        <v>0.6580170546204457</v>
+        <v>0.3354590830770992</v>
       </c>
       <c r="P3">
-        <v>0.8765821545015321</v>
+        <v>0.6176158953777593</v>
       </c>
       <c r="Q3">
-        <v>26.67453155635184</v>
+        <v>8.09452090726831</v>
       </c>
       <c r="R3">
-        <v>-80.09471671645154</v>
+        <v>-117.0248837562212</v>
       </c>
       <c r="S3">
-        <v>160.723992112194</v>
+        <v>161.7176503623313</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9327857238169885</v>
+        <v>0.7463003081389369</v>
       </c>
       <c r="O4">
-        <v>0.8835420919289405</v>
+        <v>0.3354590831007254</v>
       </c>
       <c r="P4">
-        <v>0.9553060438159338</v>
+        <v>0.6176158954174245</v>
       </c>
       <c r="Q4">
-        <v>29.05060745927353</v>
+        <v>8.094520910305746</v>
       </c>
       <c r="R4">
-        <v>-87.55250307707581</v>
+        <v>-117.024883745212</v>
       </c>
       <c r="S4">
-        <v>153.2627319207223</v>
+        <v>161.717650362412</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378669</v>
       </c>
       <c r="O5">
-        <v>0.9999999999676809</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P5">
-        <v>0.9999999999752024</v>
+        <v>0.617615895430646</v>
       </c>
       <c r="Q5">
-        <v>29.99999999869765</v>
+        <v>8.094520911318218</v>
       </c>
       <c r="R5">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S5">
-        <v>149.9999999997538</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378669</v>
       </c>
       <c r="O6">
-        <v>0.9999999999676809</v>
+        <v>0.3354590831086008</v>
       </c>
       <c r="P6">
-        <v>0.9999999999752024</v>
+        <v>0.617615895430646</v>
       </c>
       <c r="Q6">
-        <v>29.99999999869765</v>
+        <v>8.094520911318229</v>
       </c>
       <c r="R6">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S6">
-        <v>149.9999999997538</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.184177784595169</v>
+        <v>3.017335629541763</v>
       </c>
       <c r="D2">
-        <v>3.289392018549805</v>
+        <v>3.015854372955129</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>202.2224491192012</v>
+        <v>191.6265491746524</v>
       </c>
       <c r="G2">
-        <v>208.904450411793</v>
+        <v>191.5324767468589</v>
       </c>
       <c r="H2">
-        <v>1.474542044182592</v>
+        <v>1.474542044182607</v>
       </c>
       <c r="I2">
-        <v>14.89840753975177</v>
+        <v>14.89840753975188</v>
       </c>
       <c r="J2">
-        <v>2.02440438247911</v>
+        <v>1.504993721246253</v>
       </c>
       <c r="K2">
-        <v>13.05836749393474</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7672540234385913</v>
+        <v>0.7463003082195629</v>
       </c>
       <c r="O2">
-        <v>0.3649309894066022</v>
+        <v>0.3354590831689817</v>
       </c>
       <c r="P2">
-        <v>0.6406501315959038</v>
+        <v>0.61761589533227</v>
       </c>
       <c r="Q2">
-        <v>10.0430240031902</v>
+        <v>8.094520904119596</v>
       </c>
       <c r="R2">
-        <v>-113.7447931364147</v>
+        <v>-117.0248837768027</v>
       </c>
       <c r="S2">
-        <v>161.7866442133318</v>
+        <v>161.7176503553877</v>
       </c>
       <c r="T2">
-        <v>3.11286303790563</v>
+        <v>3.02761408616841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7993189627126931</v>
+        <v>0.7463003081421464</v>
       </c>
       <c r="O3">
-        <v>0.6580170546204457</v>
+        <v>0.3354590830770992</v>
       </c>
       <c r="P3">
-        <v>0.8765821545015321</v>
+        <v>0.6176158953777593</v>
       </c>
       <c r="Q3">
-        <v>26.67453155635184</v>
+        <v>8.09452090726831</v>
       </c>
       <c r="R3">
-        <v>-80.09471671645154</v>
+        <v>-117.0248837562212</v>
       </c>
       <c r="S3">
-        <v>160.723992112194</v>
+        <v>161.7176503623313</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9327857238169885</v>
+        <v>0.7463003081389369</v>
       </c>
       <c r="O4">
-        <v>0.8835420919289405</v>
+        <v>0.3354590831007254</v>
       </c>
       <c r="P4">
-        <v>0.9553060438159338</v>
+        <v>0.6176158954174245</v>
       </c>
       <c r="Q4">
-        <v>29.05060745927353</v>
+        <v>8.094520910305746</v>
       </c>
       <c r="R4">
-        <v>-87.55250307707581</v>
+        <v>-117.024883745212</v>
       </c>
       <c r="S4">
-        <v>153.2627319207223</v>
+        <v>161.717650362412</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378669</v>
       </c>
       <c r="O5">
-        <v>0.9999999999676809</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P5">
-        <v>0.9999999999752024</v>
+        <v>0.617615895430646</v>
       </c>
       <c r="Q5">
-        <v>29.99999999869765</v>
+        <v>8.094520911318218</v>
       </c>
       <c r="R5">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S5">
-        <v>149.9999999997538</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999922343</v>
+        <v>0.7463003081378669</v>
       </c>
       <c r="O6">
-        <v>0.9999999999676809</v>
+        <v>0.3354590831086008</v>
       </c>
       <c r="P6">
-        <v>0.9999999999752024</v>
+        <v>0.617615895430646</v>
       </c>
       <c r="Q6">
-        <v>29.99999999869765</v>
+        <v>8.094520911318229</v>
       </c>
       <c r="R6">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415422</v>
       </c>
       <c r="S6">
-        <v>149.9999999997538</v>
+        <v>161.7176503624389</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9711,22 +9711,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498489</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484581</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.4028253111823096</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.402825311087638</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.4028253110894424</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856889</v>
+        <v>-25.88075857298008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
   </sheetData>
@@ -9862,22 +9862,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.000028026612</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.2894067717462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.000028026612</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.2894067717462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10164,22 +10164,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385722</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466703</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.02488376071816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224104</v>
+        <v>0.3354590830702964</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
   </sheetData>
@@ -10315,22 +10315,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385722</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466703</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.02488376071816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224104</v>
+        <v>0.3354590830702964</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
   </sheetData>
@@ -10505,55 +10505,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.300764447633538</v>
+        <v>1.300764447633542</v>
       </c>
       <c r="I2">
-        <v>13.12643350248205</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.451153269669621</v>
+        <v>1.324394474185758</v>
       </c>
       <c r="K2">
-        <v>11.48161120921729</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.451153269621463</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838861</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872186</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-5.560727865338318E-11</v>
+        <v>-8.693884430299162E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671963</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457567786474546E-10</v>
       </c>
       <c r="R3">
-        <v>-74.93000134425772</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404252</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564867706877809E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.910066833103</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315016</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037907898565051E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315015</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.037895639060773E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
